--- a/public/ExcelTemplates/DrugUpload.xlsx
+++ b/public/ExcelTemplates/DrugUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\accounting\public\ExcelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Options Store\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF35E8-6C86-4687-89C5-F837D5181F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39ED83-19D8-4C2B-870A-00440D314F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"> name   </t>
   </si>
@@ -92,13 +92,19 @@
   </si>
   <si>
     <t>تشخيص10</t>
+  </si>
+  <si>
+    <t>spaeciality</t>
+  </si>
+  <si>
+    <t>التخصص</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +244,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -581,8 +593,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -938,25 +951,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,37 +978,40 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1002,38 +1019,46 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/ExcelTemplates/DrugUpload.xlsx
+++ b/public/ExcelTemplates/DrugUpload.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Options Store\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39ED83-19D8-4C2B-870A-00440D314F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9FED94-B52D-4AD2-96D5-02ED1097C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" r:id="rId1"/>
+    <sheet name="Drugs" sheetId="1" r:id="rId1"/>
+    <sheet name=" Specialty" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t xml:space="preserve"> name   </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>اسم الدواء</t>
   </si>
   <si>
-    <t xml:space="preserve"> description</t>
-  </si>
-  <si>
     <t>الوصف</t>
   </si>
   <si>
@@ -98,6 +93,84 @@
   </si>
   <si>
     <t>التخصص</t>
+  </si>
+  <si>
+    <t>default dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجرعة </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>طبيب عام</t>
+  </si>
+  <si>
+    <t>طبيب القلب والأوعية الدموية</t>
+  </si>
+  <si>
+    <t>طبيب مخ وأعصاب</t>
+  </si>
+  <si>
+    <t>طبيب جلدية</t>
+  </si>
+  <si>
+    <t>طبيب أنف وأذن وحنجرة</t>
+  </si>
+  <si>
+    <t>طبيب أمراض الدم</t>
+  </si>
+  <si>
+    <t>طبيب أورام</t>
+  </si>
+  <si>
+    <t>طبيب العظام</t>
+  </si>
+  <si>
+    <t>طبيب الأسنان</t>
+  </si>
+  <si>
+    <t>طبيب العيون</t>
+  </si>
+  <si>
+    <t>طبيب النساء والتوليد</t>
+  </si>
+  <si>
+    <t>طبيب الباطنة والجهاز الهضمي</t>
+  </si>
+  <si>
+    <t>طبيب الروماتيزم</t>
+  </si>
+  <si>
+    <t>طبيب نفسي</t>
+  </si>
+  <si>
+    <t>طبيب الأطفال</t>
+  </si>
+  <si>
+    <t>طبيب أمراض الكلى</t>
+  </si>
+  <si>
+    <t>طبيب أمراض الغدد</t>
+  </si>
+  <si>
+    <t>طبيب الطوارئ.</t>
+  </si>
+  <si>
+    <t>طبيب علاج طبيعي</t>
+  </si>
+  <si>
+    <t>الطب النَوَوِي</t>
+  </si>
+  <si>
+    <t>طبيب جراح عام</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -652,6 +725,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4DABE9D-6F18-4343-A03C-F1598013F2B7}" name="Table2" displayName="Table2" ref="A1:N1048575" totalsRowShown="0">
+  <autoFilter ref="A1:N1048575" xr:uid="{C4DABE9D-6F18-4343-A03C-F1598013F2B7}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{BF9C36E4-F9ED-4F0E-914E-9EF8FDD65A20}" name="name"/>
+    <tableColumn id="2" xr3:uid="{9827AB4B-54DE-4C97-8FD9-2BA30135A829}" name="description"/>
+    <tableColumn id="3" xr3:uid="{1B10B7A2-20FF-4A93-BF04-F1FABDD3871C}" name="default dose"/>
+    <tableColumn id="4" xr3:uid="{BEAE555D-EC10-455D-B84E-63F9118D7938}" name="spaeciality"/>
+    <tableColumn id="5" xr3:uid="{C957B064-7780-4181-A6EC-8C73BC6F2AA7}" name=" diagnose 1"/>
+    <tableColumn id="6" xr3:uid="{B077DBE2-32AC-41C2-9E5E-7A98C5519456}" name=" diagnose 2"/>
+    <tableColumn id="7" xr3:uid="{E93423D3-DFE4-4904-B5D0-C442FBF2041A}" name=" diagnose 3"/>
+    <tableColumn id="8" xr3:uid="{C430EE7E-3957-4874-AC71-001370501A60}" name=" diagnose 4"/>
+    <tableColumn id="9" xr3:uid="{9DA6C855-F685-4BF6-BD83-189F47CE6945}" name=" diagnose 5"/>
+    <tableColumn id="10" xr3:uid="{C2281109-A0FD-445E-B496-A6D3A256295A}" name=" diagnose 6"/>
+    <tableColumn id="11" xr3:uid="{CE231ADA-AB2D-4392-BDE6-79164A360CE6}" name=" diagnose 7"/>
+    <tableColumn id="12" xr3:uid="{AE53DA97-0306-46BB-9B56-2AF7DD91CD95}" name=" diagnose 8"/>
+    <tableColumn id="13" xr3:uid="{A56D1464-6B5C-4B66-AEC2-B63FDC4570A0}" name=" diagnose 9"/>
+    <tableColumn id="14" xr3:uid="{C78E09BA-877D-49CF-B843-348C279605D7}" name=" diagnose 10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5DE7776-3980-49D1-B517-85043C3E21BF}" name="Table1" displayName="Table1" ref="A1:B27" totalsRowShown="0">
+  <autoFilter ref="A1:B27" xr:uid="{F5DE7776-3980-49D1-B517-85043C3E21BF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D6D05AB9-D956-4E99-A487-AF26024E65D2}" name="id"/>
+    <tableColumn id="2" xr3:uid="{DAC80A38-BCA2-4468-A5C5-2D26CDD73999}" name="التخصص"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,114 +1058,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C329747-ED53-4DBB-A6AA-FCED69A7EBC0}">
+          <x14:formula1>
+            <xm:f>' Specialty'!$B$2:$B$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D1048576 D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49DF269C-AE6B-4F44-A04B-225B7B2270E3}">
+          <x14:formula1>
+            <xm:f>' Specialty'!$B$2:$B$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E922417-22BE-4616-A7E2-5BC4C26D502A}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>